--- a/Excel/PlayerNumericConfig@cs.xlsx
+++ b/Excel/PlayerNumericConfig@cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497E00FE-AD87-4094-9212-79618FD0CCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0DC9AB-B157-475C-9CA1-F29C49B8C779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -170,6 +170,14 @@
   <si>
     <t>#直接使用没有加成的属性
   3004开始的isPercent都是猜的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包容量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L28"/>
+  <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1214,132 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="10"/>
+      <c r="C28" s="1">
+        <v>3013</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>3015</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1">
+        <v>500</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
